--- a/Assets/MiniTemplate/Datas/mainStageRespawn.xlsx
+++ b/Assets/MiniTemplate/Datas/mainStageRespawn.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>32</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
         <v>41</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>42</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/mainStageRespawn.xlsx
+++ b/Assets/MiniTemplate/Datas/mainStageRespawn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>-70.67,22.075,30.81;-70.67,22.075,15.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitychan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.631,0.022,-3.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,6 +826,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
